--- a/Code/Results/Cases/Case_3_212/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_212/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.83036011458891</v>
+        <v>16.69781362728563</v>
       </c>
       <c r="C2">
-        <v>18.98939422709126</v>
+        <v>14.19332454900518</v>
       </c>
       <c r="D2">
-        <v>3.047755000675228</v>
+        <v>6.951549914022692</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>42.86174337846093</v>
+        <v>46.29031135036597</v>
       </c>
       <c r="G2">
-        <v>2.090586516698531</v>
+        <v>3.70747133614231</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.82451769267817</v>
+        <v>30.09249396601462</v>
       </c>
       <c r="J2">
-        <v>6.454374012696507</v>
+        <v>10.72921214413846</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.78605378392071</v>
+        <v>19.52158227580475</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.33677042850517</v>
+        <v>16.32793834108545</v>
       </c>
       <c r="C3">
-        <v>17.61774047013977</v>
+        <v>13.79814439600413</v>
       </c>
       <c r="D3">
-        <v>3.034367941719286</v>
+        <v>6.961493729702431</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>41.11208607081907</v>
+        <v>46.01280776356245</v>
       </c>
       <c r="G3">
-        <v>2.102693543036951</v>
+        <v>3.711618159176107</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.10413297350513</v>
+        <v>30.00784621329311</v>
       </c>
       <c r="J3">
-        <v>6.4507436444573</v>
+        <v>10.74991373997399</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.99766076828334</v>
+        <v>19.43460482876289</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.3736231527696</v>
+        <v>16.10222227990568</v>
       </c>
       <c r="C4">
-        <v>16.7370557535701</v>
+        <v>13.5547133967135</v>
       </c>
       <c r="D4">
-        <v>3.027035287118366</v>
+        <v>6.968100583810916</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>40.0474078645133</v>
+        <v>45.85352756971746</v>
       </c>
       <c r="G4">
-        <v>2.11027439310477</v>
+        <v>3.714294277338145</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.67796218074968</v>
+        <v>29.96236623978795</v>
       </c>
       <c r="J4">
-        <v>6.451746236168038</v>
+        <v>10.76389735756344</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.50638680350422</v>
+        <v>19.38601484201444</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.96935707043789</v>
+        <v>16.0107420154122</v>
       </c>
       <c r="C5">
-        <v>16.36834947233641</v>
+        <v>13.45548810222221</v>
       </c>
       <c r="D5">
-        <v>3.024259851536043</v>
+        <v>6.970919492493937</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>39.616231898032</v>
+        <v>45.79145097569816</v>
       </c>
       <c r="G5">
-        <v>2.11340408676116</v>
+        <v>3.715417626598348</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.50829737865676</v>
+        <v>29.94546807549523</v>
       </c>
       <c r="J5">
-        <v>6.452935045820839</v>
+        <v>10.7699157711012</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.30458121455666</v>
+        <v>19.36743982114913</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.90151257078657</v>
+        <v>15.9955865192064</v>
       </c>
       <c r="C6">
-        <v>16.30652941515851</v>
+        <v>13.43901550240122</v>
       </c>
       <c r="D6">
-        <v>3.023811563772759</v>
+        <v>6.971395229043694</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39.54480699090417</v>
+        <v>45.78131522924761</v>
       </c>
       <c r="G6">
-        <v>2.113926307488218</v>
+        <v>3.715606143361751</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.48036488131006</v>
+        <v>29.94276094815906</v>
       </c>
       <c r="J6">
-        <v>6.453178659618458</v>
+        <v>10.77093444773968</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.27098132990397</v>
+        <v>19.36442989761392</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.36821899640085</v>
+        <v>16.10098631491047</v>
       </c>
       <c r="C7">
-        <v>16.73212317858772</v>
+        <v>13.55337507731576</v>
       </c>
       <c r="D7">
-        <v>3.026997008074225</v>
+        <v>6.968138087470542</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>40.04158158257133</v>
+        <v>45.85267887253006</v>
       </c>
       <c r="G7">
-        <v>2.110316433179205</v>
+        <v>3.71430929420322</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.67565788425332</v>
+        <v>29.96213172248471</v>
       </c>
       <c r="J7">
-        <v>6.451759151129583</v>
+        <v>10.76397722852572</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.50367138799308</v>
+        <v>19.38575935090427</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.32481407173072</v>
+        <v>16.5700824151907</v>
       </c>
       <c r="C8">
-        <v>18.5243389996833</v>
+        <v>14.05733160174982</v>
       </c>
       <c r="D8">
-        <v>3.042948274457196</v>
+        <v>6.954874795001587</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>42.25660562760444</v>
+        <v>46.19234699608722</v>
       </c>
       <c r="G8">
-        <v>2.094732665911851</v>
+        <v>3.708874268758787</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.57274005045999</v>
+        <v>30.06196147107842</v>
       </c>
       <c r="J8">
-        <v>6.452431445393906</v>
+        <v>10.73608585442338</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.51581576907335</v>
+        <v>19.49060278381311</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.80563714462319</v>
+        <v>17.49451482725167</v>
       </c>
       <c r="C9">
-        <v>21.74172084137923</v>
+        <v>15.03214775083697</v>
       </c>
       <c r="D9">
-        <v>3.08183353786596</v>
+        <v>6.932821225749021</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>46.66895274281671</v>
+        <v>46.9446722764034</v>
       </c>
       <c r="G9">
-        <v>2.065166319954116</v>
+        <v>3.699241291082764</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.46342537648431</v>
+        <v>30.30908020832248</v>
       </c>
       <c r="J9">
-        <v>6.480958098654269</v>
+        <v>10.69149299051394</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.56881315378053</v>
+        <v>19.73366071170085</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.16091443788392</v>
+        <v>18.16813390252603</v>
       </c>
       <c r="C10">
-        <v>23.93838982786877</v>
+        <v>15.73121953894134</v>
       </c>
       <c r="D10">
-        <v>3.116011524675532</v>
+        <v>6.919000633752481</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>49.95000228208728</v>
+        <v>47.54712958681639</v>
       </c>
       <c r="G10">
-        <v>2.043775054838484</v>
+        <v>3.692780431406797</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.93940760261014</v>
+        <v>30.52160508920011</v>
       </c>
       <c r="J10">
-        <v>6.520872507549294</v>
+        <v>10.66489395711661</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.305103538178</v>
+        <v>19.93397675907671</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.19237693257551</v>
+        <v>18.47173968167431</v>
       </c>
       <c r="C11">
-        <v>24.90529630653845</v>
+        <v>16.04385168594498</v>
       </c>
       <c r="D11">
-        <v>3.133059209775977</v>
+        <v>6.913224446298408</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>51.45313250763103</v>
+        <v>47.83130740353661</v>
       </c>
       <c r="G11">
-        <v>2.034043487385027</v>
+        <v>3.68997327793588</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>29.63201348950753</v>
+        <v>30.62490384058389</v>
       </c>
       <c r="J11">
-        <v>6.543735967382328</v>
+        <v>10.65413268364646</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.0659514951214</v>
+        <v>20.02956354984761</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.57759016232917</v>
+        <v>18.58617514096417</v>
       </c>
       <c r="C12">
-        <v>25.26717074550878</v>
+        <v>16.16133954120925</v>
       </c>
       <c r="D12">
-        <v>3.139760074806076</v>
+        <v>6.91111013141526</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>52.02419957457296</v>
+        <v>47.94030900091504</v>
       </c>
       <c r="G12">
-        <v>2.030351251209775</v>
+        <v>3.688929113097758</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>29.89759322133566</v>
+        <v>30.66496024191033</v>
       </c>
       <c r="J12">
-        <v>6.553126074210628</v>
+        <v>10.65025025831776</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.35017929958061</v>
+        <v>20.06637728381386</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.49486043497018</v>
+        <v>18.56155507536874</v>
       </c>
       <c r="C13">
-        <v>25.18941785301405</v>
+        <v>16.13607830027171</v>
       </c>
       <c r="D13">
-        <v>3.138305477400891</v>
+        <v>6.91156224743821</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.90111984582781</v>
+        <v>47.9167728225606</v>
       </c>
       <c r="G13">
-        <v>2.031146879518033</v>
+        <v>3.689153156642166</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>29.84024393489942</v>
+        <v>30.65629181622441</v>
       </c>
       <c r="J13">
-        <v>6.551070227034569</v>
+        <v>10.65107783867977</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.2891338234071</v>
+        <v>20.05842174463148</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.22417417534281</v>
+        <v>18.48116574454263</v>
       </c>
       <c r="C14">
-        <v>24.93515114085831</v>
+        <v>16.05353618245618</v>
       </c>
       <c r="D14">
-        <v>3.133605386862761</v>
+        <v>6.913049039885721</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>51.50007459909066</v>
+        <v>47.84024756453624</v>
       </c>
       <c r="G14">
-        <v>2.033739911258739</v>
+        <v>3.689886996947025</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>29.65379490053213</v>
+        <v>30.62818055551954</v>
       </c>
       <c r="J14">
-        <v>6.544493481270387</v>
+        <v>10.65380941279789</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.08941127848986</v>
+        <v>20.03258001495712</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.05768227423496</v>
+        <v>18.43185186079784</v>
       </c>
       <c r="C15">
-        <v>24.7788614939905</v>
+        <v>16.00285611933515</v>
       </c>
       <c r="D15">
-        <v>3.130759370193079</v>
+        <v>6.913969236649519</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>51.25467869361076</v>
+        <v>47.7935526179942</v>
       </c>
       <c r="G15">
-        <v>2.035327066646492</v>
+        <v>3.690338945499991</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>29.54002887395107</v>
+        <v>30.61108353417568</v>
       </c>
       <c r="J15">
-        <v>6.540562148146112</v>
+        <v>10.6555076711666</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.96657800746856</v>
+        <v>20.01683082557988</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.09273203965509</v>
+        <v>18.14822462399625</v>
       </c>
       <c r="C16">
-        <v>23.87458020186209</v>
+        <v>15.71066905280952</v>
       </c>
       <c r="D16">
-        <v>3.114929995447678</v>
+        <v>6.919388361670744</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.85200752180837</v>
+        <v>47.52875597664731</v>
       </c>
       <c r="G16">
-        <v>2.044410447465563</v>
+        <v>3.692966529251249</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.89459084097044</v>
+        <v>30.51498645082701</v>
       </c>
       <c r="J16">
-        <v>6.51947762346922</v>
+        <v>10.66562418162743</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.25482000173149</v>
+        <v>19.92781765246261</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.4907766041072</v>
+        <v>17.97341150713261</v>
       </c>
       <c r="C17">
-        <v>23.31179600911352</v>
+        <v>15.52995104141065</v>
       </c>
       <c r="D17">
-        <v>3.105622587691374</v>
+        <v>6.922843335480862</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>48.99441431189022</v>
+        <v>47.36885764081806</v>
       </c>
       <c r="G17">
-        <v>2.049977983425981</v>
+        <v>3.694612165036387</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.50422147081003</v>
+        <v>30.45772116674279</v>
       </c>
       <c r="J17">
-        <v>6.507785816485834</v>
+        <v>10.67217331169494</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.81094089987213</v>
+        <v>19.87433668401652</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.14076133934941</v>
+        <v>17.87260462120409</v>
       </c>
       <c r="C18">
-        <v>22.98502443217908</v>
+        <v>15.42550730314848</v>
       </c>
       <c r="D18">
-        <v>3.100408305230435</v>
+        <v>6.924878657573257</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>48.50211362291195</v>
+        <v>47.27784471840512</v>
       </c>
       <c r="G18">
-        <v>2.053180705234464</v>
+        <v>3.69557111611743</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.28166486585902</v>
+        <v>30.42540766622824</v>
       </c>
       <c r="J18">
-        <v>6.501500301338241</v>
+        <v>10.6760662016543</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.55288500155682</v>
+        <v>19.84399737645663</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.02159145860674</v>
+        <v>17.8384326614882</v>
       </c>
       <c r="C19">
-        <v>22.87384670894679</v>
+        <v>15.39006266907595</v>
       </c>
       <c r="D19">
-        <v>3.098665921360329</v>
+        <v>6.925576060175652</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>48.33558682017387</v>
+        <v>47.2471954987111</v>
       </c>
       <c r="G19">
-        <v>2.054265361721155</v>
+        <v>3.695897938346014</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.20664321709367</v>
+        <v>30.4145743940161</v>
       </c>
       <c r="J19">
-        <v>6.499445996954285</v>
+        <v>10.67740590465071</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.46503169145718</v>
+        <v>19.83379813571664</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.55524516273795</v>
+        <v>17.99204841395089</v>
       </c>
       <c r="C20">
-        <v>23.37202080998959</v>
+        <v>15.54924142648318</v>
       </c>
       <c r="D20">
-        <v>3.106598786173561</v>
+        <v>6.922470571512818</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.0856048015058</v>
+        <v>47.38578057319027</v>
       </c>
       <c r="G20">
-        <v>2.049385313572046</v>
+        <v>3.694435699290374</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.54557105090381</v>
+        <v>30.46375266055347</v>
       </c>
       <c r="J20">
-        <v>6.508984581672225</v>
+        <v>10.67146310381704</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.85847511451333</v>
+        <v>19.87998637178235</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.30382409627842</v>
+        <v>18.50479348788257</v>
       </c>
       <c r="C21">
-        <v>25.00994802352242</v>
+        <v>16.07780615147862</v>
       </c>
       <c r="D21">
-        <v>3.134978994272809</v>
+        <v>6.912610355288562</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>51.61781712623154</v>
+        <v>47.86268770827131</v>
       </c>
       <c r="G21">
-        <v>2.032978529001031</v>
+        <v>3.689670939872983</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>29.70846736032418</v>
+        <v>30.63641212723115</v>
       </c>
       <c r="J21">
-        <v>6.546404884053322</v>
+        <v>10.65300185424882</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.14817774171576</v>
+        <v>20.04015381073635</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.41547686457404</v>
+        <v>18.83673969162877</v>
       </c>
       <c r="C22">
-        <v>26.05575150102224</v>
+        <v>16.41796242823128</v>
       </c>
       <c r="D22">
-        <v>3.154975198324573</v>
+        <v>6.906591436290191</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>53.28391606778937</v>
+        <v>48.18244161069647</v>
       </c>
       <c r="G22">
-        <v>2.022210277618434</v>
+        <v>3.686666668227583</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.48792895112223</v>
+        <v>30.75472367724059</v>
       </c>
       <c r="J22">
-        <v>6.575159861867105</v>
+        <v>10.64205923896326</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.96856547900409</v>
+        <v>20.14841723888014</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.82488119420103</v>
+        <v>18.65990287726171</v>
       </c>
       <c r="C23">
-        <v>25.49970131800522</v>
+        <v>16.23693738332973</v>
       </c>
       <c r="D23">
-        <v>3.144158896227947</v>
+        <v>6.909765081834202</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>52.3935082706103</v>
+        <v>48.01106705268977</v>
       </c>
       <c r="G23">
-        <v>2.027964265253311</v>
+        <v>3.688260102177888</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.07003035735606</v>
+        <v>30.69108276837944</v>
       </c>
       <c r="J23">
-        <v>6.559399345068677</v>
+        <v>10.64779673633268</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.53266529851436</v>
+        <v>20.09031538993327</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.52611123622265</v>
+        <v>17.98362360709296</v>
       </c>
       <c r="C24">
-        <v>23.34480323341188</v>
+        <v>15.54052193610548</v>
       </c>
       <c r="D24">
-        <v>3.106157023278065</v>
+        <v>6.922638945407401</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>49.04437529671603</v>
+        <v>47.37812686128344</v>
       </c>
       <c r="G24">
-        <v>2.049653253269616</v>
+        <v>3.694515439409687</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.52687109369195</v>
+        <v>30.46102392413959</v>
       </c>
       <c r="J24">
-        <v>6.508441265183894</v>
+        <v>10.67178379102664</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.83699383716257</v>
+        <v>19.87743087647064</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.90065775336769</v>
+        <v>17.24482915324912</v>
       </c>
       <c r="C25">
-        <v>20.90184383100005</v>
+        <v>14.77083594839479</v>
       </c>
       <c r="D25">
-        <v>3.070410591045864</v>
+        <v>6.938366872143018</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>45.46861561945704</v>
+        <v>46.73219304935753</v>
       </c>
       <c r="G25">
-        <v>2.073084739250171</v>
+        <v>3.70173839683555</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.93729030574549</v>
+        <v>30.23675833783629</v>
       </c>
       <c r="J25">
-        <v>6.470096108303198</v>
+        <v>10.70247452242763</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.92490927707425</v>
+        <v>19.66400392183867</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_212/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_212/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.69781362728563</v>
+        <v>20.83036011458885</v>
       </c>
       <c r="C2">
-        <v>14.19332454900518</v>
+        <v>18.98939422709122</v>
       </c>
       <c r="D2">
-        <v>6.951549914022692</v>
+        <v>3.047755000674954</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>46.29031135036597</v>
+        <v>42.86174337846094</v>
       </c>
       <c r="G2">
-        <v>3.70747133614231</v>
+        <v>2.090586516698258</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.09249396601462</v>
+        <v>25.82451769267823</v>
       </c>
       <c r="J2">
-        <v>10.72921214413846</v>
+        <v>6.454374012696537</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.52158227580475</v>
+        <v>15.7860537839207</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.32793834108545</v>
+        <v>19.33677042850515</v>
       </c>
       <c r="C3">
-        <v>13.79814439600413</v>
+        <v>17.61774047013975</v>
       </c>
       <c r="D3">
-        <v>6.961493729702431</v>
+        <v>3.034367941718966</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>46.01280776356245</v>
+        <v>41.11208607081907</v>
       </c>
       <c r="G3">
-        <v>3.711618159176107</v>
+        <v>2.102693543036816</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>30.00784621329311</v>
+        <v>25.10413297350526</v>
       </c>
       <c r="J3">
-        <v>10.74991373997399</v>
+        <v>6.450743644457331</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.43460482876289</v>
+        <v>14.99766076828333</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.10222227990568</v>
+        <v>18.37362315276966</v>
       </c>
       <c r="C4">
-        <v>13.5547133967135</v>
+        <v>16.73705575357002</v>
       </c>
       <c r="D4">
-        <v>6.968100583810916</v>
+        <v>3.02703528711849</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>45.85352756971746</v>
+        <v>40.04740786451329</v>
       </c>
       <c r="G4">
-        <v>3.714294277338145</v>
+        <v>2.110274393105302</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.96236623978795</v>
+        <v>24.67796218074958</v>
       </c>
       <c r="J4">
-        <v>10.76389735756344</v>
+        <v>6.451746236168017</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.38601484201444</v>
+        <v>14.50638680350422</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.0107420154122</v>
+        <v>17.96935707043791</v>
       </c>
       <c r="C5">
-        <v>13.45548810222221</v>
+        <v>16.36834947233647</v>
       </c>
       <c r="D5">
-        <v>6.970919492493937</v>
+        <v>3.024259851535903</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>45.79145097569816</v>
+        <v>39.616231898032</v>
       </c>
       <c r="G5">
-        <v>3.715417626598348</v>
+        <v>2.113404086760897</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.94546807549523</v>
+        <v>24.50829737865682</v>
       </c>
       <c r="J5">
-        <v>10.7699157711012</v>
+        <v>6.452935045820929</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.36743982114913</v>
+        <v>14.30458121455663</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.9955865192064</v>
+        <v>17.90151257078659</v>
       </c>
       <c r="C6">
-        <v>13.43901550240122</v>
+        <v>16.30652941515856</v>
       </c>
       <c r="D6">
-        <v>6.971395229043694</v>
+        <v>3.023811563772815</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>45.78131522924761</v>
+        <v>39.54480699090409</v>
       </c>
       <c r="G6">
-        <v>3.715606143361751</v>
+        <v>2.113926307488083</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.94276094815906</v>
+        <v>24.48036488130997</v>
       </c>
       <c r="J6">
-        <v>10.77093444773968</v>
+        <v>6.453178659618549</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.36442989761392</v>
+        <v>14.27098132990393</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.10098631491047</v>
+        <v>18.36821899640089</v>
       </c>
       <c r="C7">
-        <v>13.55337507731576</v>
+        <v>16.73212317858768</v>
       </c>
       <c r="D7">
-        <v>6.968138087470542</v>
+        <v>3.026997008074352</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>45.85267887253006</v>
+        <v>40.04158158257133</v>
       </c>
       <c r="G7">
-        <v>3.71430929420322</v>
+        <v>2.110316433179069</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.96213172248471</v>
+        <v>24.6756578842533</v>
       </c>
       <c r="J7">
-        <v>10.76397722852572</v>
+        <v>6.451759151129613</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.38575935090427</v>
+        <v>14.50367138799308</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.5700824151907</v>
+        <v>20.3248140717307</v>
       </c>
       <c r="C8">
-        <v>14.05733160174982</v>
+        <v>18.52433899968327</v>
       </c>
       <c r="D8">
-        <v>6.954874795001587</v>
+        <v>3.042948274457201</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>46.19234699608722</v>
+        <v>42.25660562760464</v>
       </c>
       <c r="G8">
-        <v>3.708874268758787</v>
+        <v>2.094732665912117</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.06196147107842</v>
+        <v>25.57274005046015</v>
       </c>
       <c r="J8">
-        <v>10.73608585442338</v>
+        <v>6.452431445393884</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.49060278381311</v>
+        <v>15.51581576907336</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.49451482725167</v>
+        <v>23.80563714462327</v>
       </c>
       <c r="C9">
-        <v>15.03214775083697</v>
+        <v>21.74172084137923</v>
       </c>
       <c r="D9">
-        <v>6.932821225749021</v>
+        <v>3.081833537865632</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>46.9446722764034</v>
+        <v>46.66895274281673</v>
       </c>
       <c r="G9">
-        <v>3.699241291082764</v>
+        <v>2.065166319954117</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.30908020832248</v>
+        <v>27.46342537648429</v>
       </c>
       <c r="J9">
-        <v>10.69149299051394</v>
+        <v>6.480958098654237</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.73366071170085</v>
+        <v>17.5688131537806</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.16813390252603</v>
+        <v>26.16091443788377</v>
       </c>
       <c r="C10">
-        <v>15.73121953894134</v>
+        <v>23.93838982786862</v>
       </c>
       <c r="D10">
-        <v>6.919000633752481</v>
+        <v>3.116011524675399</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.54712958681639</v>
+        <v>49.95000228208731</v>
       </c>
       <c r="G10">
-        <v>3.692780431406797</v>
+        <v>2.043775054838614</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.52160508920011</v>
+        <v>28.93940760261027</v>
       </c>
       <c r="J10">
-        <v>10.66489395711661</v>
+        <v>6.520872507549318</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.93397675907671</v>
+        <v>19.30510353817789</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.47173968167431</v>
+        <v>27.19237693257573</v>
       </c>
       <c r="C11">
-        <v>16.04385168594498</v>
+        <v>24.90529630653841</v>
       </c>
       <c r="D11">
-        <v>6.913224446298408</v>
+        <v>3.133059209775948</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>47.83130740353661</v>
+        <v>51.4531325076312</v>
       </c>
       <c r="G11">
-        <v>3.68997327793588</v>
+        <v>2.034043487385144</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.62490384058389</v>
+        <v>29.63201348950763</v>
       </c>
       <c r="J11">
-        <v>10.65413268364646</v>
+        <v>6.543735967382363</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.02956354984761</v>
+        <v>20.06595149512146</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.58617514096417</v>
+        <v>27.57759016232935</v>
       </c>
       <c r="C12">
-        <v>16.16133954120925</v>
+        <v>25.26717074550874</v>
       </c>
       <c r="D12">
-        <v>6.91111013141526</v>
+        <v>3.139760074806196</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>47.94030900091504</v>
+        <v>52.02419957457314</v>
       </c>
       <c r="G12">
-        <v>3.688929113097758</v>
+        <v>2.030351251209515</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.66496024191033</v>
+        <v>29.89759322133572</v>
       </c>
       <c r="J12">
-        <v>10.65025025831776</v>
+        <v>6.553126074210637</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.06637728381386</v>
+        <v>20.35017929958067</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.56155507536874</v>
+        <v>27.4948604349702</v>
       </c>
       <c r="C13">
-        <v>16.13607830027171</v>
+        <v>25.18941785301427</v>
       </c>
       <c r="D13">
-        <v>6.91156224743821</v>
+        <v>3.13830547740077</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>47.9167728225606</v>
+        <v>51.90111984582811</v>
       </c>
       <c r="G13">
-        <v>3.689153156642166</v>
+        <v>2.031146879517772</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.65629181622441</v>
+        <v>29.8402439348996</v>
       </c>
       <c r="J13">
-        <v>10.65107783867977</v>
+        <v>6.551070227034559</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.05842174463148</v>
+        <v>20.28913382340718</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.48116574454263</v>
+        <v>27.22417417534282</v>
       </c>
       <c r="C14">
-        <v>16.05353618245618</v>
+        <v>24.93515114085828</v>
       </c>
       <c r="D14">
-        <v>6.913049039885721</v>
+        <v>3.133605386862836</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>47.84024756453624</v>
+        <v>51.50007459909058</v>
       </c>
       <c r="G14">
-        <v>3.689886996947025</v>
+        <v>2.03373991125873</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.62818055551954</v>
+        <v>29.65379490053209</v>
       </c>
       <c r="J14">
-        <v>10.65380941279789</v>
+        <v>6.544493481270389</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.03258001495712</v>
+        <v>20.08941127848986</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.43185186079784</v>
+        <v>27.057682274235</v>
       </c>
       <c r="C15">
-        <v>16.00285611933515</v>
+        <v>24.77886149399043</v>
       </c>
       <c r="D15">
-        <v>6.913969236649519</v>
+        <v>3.130759370192954</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>47.7935526179942</v>
+        <v>51.25467869361064</v>
       </c>
       <c r="G15">
-        <v>3.690338945499991</v>
+        <v>2.03532706664636</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.61108353417568</v>
+        <v>29.54002887395102</v>
       </c>
       <c r="J15">
-        <v>10.6555076711666</v>
+        <v>6.54056214814606</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.01683082557988</v>
+        <v>19.9665780074686</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.14822462399625</v>
+        <v>26.09273203965492</v>
       </c>
       <c r="C16">
-        <v>15.71066905280952</v>
+        <v>23.87458020186201</v>
       </c>
       <c r="D16">
-        <v>6.919388361670744</v>
+        <v>3.114929995447429</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.52875597664731</v>
+        <v>49.85200752180843</v>
       </c>
       <c r="G16">
-        <v>3.692966529251249</v>
+        <v>2.044410447465438</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.51498645082701</v>
+        <v>28.8945908409705</v>
       </c>
       <c r="J16">
-        <v>10.66562418162743</v>
+        <v>6.519477623469185</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.92781765246261</v>
+        <v>19.25482000173144</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.97341150713261</v>
+        <v>25.49077660410711</v>
       </c>
       <c r="C17">
-        <v>15.52995104141065</v>
+        <v>23.31179600911345</v>
       </c>
       <c r="D17">
-        <v>6.922843335480862</v>
+        <v>3.105622587691131</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.36885764081806</v>
+        <v>48.99441431189013</v>
       </c>
       <c r="G17">
-        <v>3.694612165036387</v>
+        <v>2.049977983425978</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.45772116674279</v>
+        <v>28.50422147081</v>
       </c>
       <c r="J17">
-        <v>10.67217331169494</v>
+        <v>6.50778581648586</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.87433668401652</v>
+        <v>18.81094089987208</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.87260462120409</v>
+        <v>25.1407613393496</v>
       </c>
       <c r="C18">
-        <v>15.42550730314848</v>
+        <v>22.98502443217906</v>
       </c>
       <c r="D18">
-        <v>6.924878657573257</v>
+        <v>3.100408305230487</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>47.27784471840512</v>
+        <v>48.502113622912</v>
       </c>
       <c r="G18">
-        <v>3.69557111611743</v>
+        <v>2.053180705234453</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.42540766622824</v>
+        <v>28.281664865859</v>
       </c>
       <c r="J18">
-        <v>10.6760662016543</v>
+        <v>6.501500301338252</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.84399737645663</v>
+        <v>18.55288500155689</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.8384326614882</v>
+        <v>25.02159145860662</v>
       </c>
       <c r="C19">
-        <v>15.39006266907595</v>
+        <v>22.87384670894669</v>
       </c>
       <c r="D19">
-        <v>6.925576060175652</v>
+        <v>3.09866592136001</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>47.2471954987111</v>
+        <v>48.33558682017394</v>
       </c>
       <c r="G19">
-        <v>3.695897938346014</v>
+        <v>2.054265361721155</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.4145743940161</v>
+        <v>28.20664321709378</v>
       </c>
       <c r="J19">
-        <v>10.67740590465071</v>
+        <v>6.499445996954284</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.83379813571664</v>
+        <v>18.46503169145713</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.99204841395089</v>
+        <v>25.55524516273795</v>
       </c>
       <c r="C20">
-        <v>15.54924142648318</v>
+        <v>23.37202080998959</v>
       </c>
       <c r="D20">
-        <v>6.922470571512818</v>
+        <v>3.106598786173486</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.38578057319027</v>
+        <v>49.08560480150575</v>
       </c>
       <c r="G20">
-        <v>3.694435699290374</v>
+        <v>2.049385313572174</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.46375266055347</v>
+        <v>28.54557105090378</v>
       </c>
       <c r="J20">
-        <v>10.67146310381704</v>
+        <v>6.508984581672246</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.87998637178235</v>
+        <v>18.85847511451333</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.50479348788257</v>
+        <v>27.30382409627836</v>
       </c>
       <c r="C21">
-        <v>16.07780615147862</v>
+        <v>25.00994802352225</v>
       </c>
       <c r="D21">
-        <v>6.912610355288562</v>
+        <v>3.134978994272739</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>47.86268770827131</v>
+        <v>51.61781712623154</v>
       </c>
       <c r="G21">
-        <v>3.689670939872983</v>
+        <v>2.032978529001037</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.63641212723115</v>
+        <v>29.70846736032419</v>
       </c>
       <c r="J21">
-        <v>10.65300185424882</v>
+        <v>6.546404884053339</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.04015381073635</v>
+        <v>20.1481777417157</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.83673969162877</v>
+        <v>28.41547686457401</v>
       </c>
       <c r="C22">
-        <v>16.41796242823128</v>
+        <v>26.05575150102227</v>
       </c>
       <c r="D22">
-        <v>6.906591436290191</v>
+        <v>3.154975198324675</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>48.18244161069647</v>
+        <v>53.28391606778962</v>
       </c>
       <c r="G22">
-        <v>3.686666668227583</v>
+        <v>2.022210277618826</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.75472367724059</v>
+        <v>30.4879289511224</v>
       </c>
       <c r="J22">
-        <v>10.64205923896326</v>
+        <v>6.575159861867132</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.14841723888014</v>
+        <v>20.96856547900402</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.65990287726171</v>
+        <v>27.82488119420096</v>
       </c>
       <c r="C23">
-        <v>16.23693738332973</v>
+        <v>25.49970131800528</v>
       </c>
       <c r="D23">
-        <v>6.909765081834202</v>
+        <v>3.144158896227688</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>48.01106705268977</v>
+        <v>52.39350827061028</v>
       </c>
       <c r="G23">
-        <v>3.688260102177888</v>
+        <v>2.027964265253576</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.69108276837944</v>
+        <v>30.07003035735609</v>
       </c>
       <c r="J23">
-        <v>10.64779673633268</v>
+        <v>6.559399345068671</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.09031538993327</v>
+        <v>20.53266529851436</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.98362360709296</v>
+        <v>25.52611123622264</v>
       </c>
       <c r="C24">
-        <v>15.54052193610548</v>
+        <v>23.34480323341187</v>
       </c>
       <c r="D24">
-        <v>6.922638945407401</v>
+        <v>3.106157023278007</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.37812686128344</v>
+        <v>49.04437529671616</v>
       </c>
       <c r="G24">
-        <v>3.694515439409687</v>
+        <v>2.04965325326949</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.46102392413959</v>
+        <v>28.52687109369207</v>
       </c>
       <c r="J24">
-        <v>10.67178379102664</v>
+        <v>6.508441265183879</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.87743087647064</v>
+        <v>18.83699383716259</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.24482915324912</v>
+        <v>22.90065775336766</v>
       </c>
       <c r="C25">
-        <v>14.77083594839479</v>
+        <v>20.90184383100005</v>
       </c>
       <c r="D25">
-        <v>6.938366872143018</v>
+        <v>3.070410591045671</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>46.73219304935753</v>
+        <v>45.46861561945703</v>
       </c>
       <c r="G25">
-        <v>3.70173839683555</v>
+        <v>2.073084739249905</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.23675833783629</v>
+        <v>26.93729030574556</v>
       </c>
       <c r="J25">
-        <v>10.70247452242763</v>
+        <v>6.470096108303227</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.66400392183867</v>
+        <v>16.92490927707424</v>
       </c>
       <c r="N25">
         <v>0</v>
